--- a/Business/打车票.xlsx
+++ b/Business/打车票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,402 @@
   </si>
   <si>
     <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:23-09:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:41-09:04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:59-16:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:32-09:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:33-09:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:09-09:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:45-14:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:36-20:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:19-22:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:54-21:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:12-15:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-15:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:46-11:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:21-09:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:53-11:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:19-10:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:19-10:44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:07-13:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:58-10:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:31-09:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:31-13:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:25-11:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30-10:49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:39-09:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:01-09:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:43-19:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:08-19:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:34-09:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:05-10:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:55-20:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:49-09:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:10-11:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:42-19:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:41-16:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:16-17:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:24-18:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:25-19:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:42-20:04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:25-21:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:48-21:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:39-09:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:01-07:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:47-22:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:38-18:56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:13-21:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:26-10:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:11-17:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:21-10:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:51-09:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:16-08:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:47-16:07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:54-13:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:53-10:07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:24-12:41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:20-09:37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:01-09:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:32-16:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:55-13:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:28-09:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:39-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:39-16:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:10-15:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:23-14:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:07-16:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:12-13:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:31-15:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:31-08:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:11-10:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:44-15:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:02-14:23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:52-22:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:29-09:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:23-08:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05:53-06:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:40-22:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:48-08:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:01-08:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:07-18:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:24-17:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:44-09:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:26-20:56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:06-11:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:04-07:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:23-15:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:04-16:37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:15-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:40-11:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:44-12:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:20-14:41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:03-14:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-13:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:33-17:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:49-14:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:01-15:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:32-16:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:06-09:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:02-11:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:53-18:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:25-09:43</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,7 +451,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="yyyy\/mm\/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\/mm\/dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -73,12 +469,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,9 +495,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -397,20 +802,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="27.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="27.625" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -424,16 +829,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -441,911 +846,2124 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>42793</v>
+        <v>42767</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" s="1">
+        <v>42776</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" s="1">
+        <v>42776</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" s="1">
+        <v>42779</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" s="1">
+        <v>42779</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" s="1">
+        <v>42782</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" s="1">
+        <v>42793</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" s="1">
+        <v>42794</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" s="1">
+        <v>42794</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" s="1">
+        <v>42795</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" s="1">
+        <v>42796</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" s="1">
+        <v>42797</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" s="1">
+        <v>42797</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" s="1">
+        <v>42803</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B16" s="1">
+        <v>42803</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17" s="1">
+        <v>42803</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>42804</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42804</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>42808</v>
+      </c>
+      <c r="C20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="D20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42808</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>42810</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>42810</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>42811</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>42811</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>42811</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>42815</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>42817</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>42818</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>42822</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <v>42822</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <v>42823</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <v>42824</v>
+      </c>
+      <c r="C33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="D33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
+        <v>42825</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1">
+        <v>42825</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>42825</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
+        <v>42825</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>22</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>42826</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>42826</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <v>42826</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1">
+        <v>42826</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>42830</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42832</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1">
+        <v>42835</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1">
+        <v>42836</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1">
+        <v>42836</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1">
+        <v>42836</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1">
+        <v>42838</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1">
+        <v>42843</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <v>42844</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1">
+        <v>42846</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1">
+        <v>42846</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1">
+        <v>42846</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1">
+        <v>42849</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1">
+        <v>42850</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1">
+        <v>42851</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1">
+        <v>42852</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
+        <v>58</v>
+      </c>
+      <c r="B58" s="4">
+        <v>42857</v>
+      </c>
+      <c r="C58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="3">
+        <v>26</v>
+      </c>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1">
+        <v>42858</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1">
+        <v>42858</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1">
+        <v>42859</v>
+      </c>
+      <c r="C61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1">
+        <v>42859</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1">
+        <v>42859</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1">
+        <v>42859</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" s="1">
+        <v>42860</v>
+      </c>
+      <c r="C65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1">
+        <v>42860</v>
+      </c>
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1">
+        <v>42863</v>
+      </c>
+      <c r="C67" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" s="1">
+        <v>42865</v>
+      </c>
+      <c r="C68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1">
+        <v>42866</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1">
+        <v>42870</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" s="1">
+        <v>42870</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" s="1">
+        <v>42870</v>
+      </c>
+      <c r="C72" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" s="1">
+        <v>42872</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" s="1">
+        <v>42872</v>
+      </c>
+      <c r="C74" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" s="1">
+        <v>42872</v>
+      </c>
+      <c r="C75" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" s="1">
+        <v>42872</v>
+      </c>
+      <c r="C76" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" s="1">
+        <v>42872</v>
+      </c>
+      <c r="C77" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" s="1">
+        <v>42872</v>
+      </c>
+      <c r="C78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" s="1">
+        <v>42873</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" s="1">
+        <v>42873</v>
+      </c>
+      <c r="C80" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" s="1">
+        <v>42873</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" s="1">
+        <v>42874</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82">
+        <v>28</v>
+      </c>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42874</v>
+      </c>
+      <c r="C83" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42874</v>
+      </c>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42877</v>
+      </c>
+      <c r="C85" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42878</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42879</v>
+      </c>
+      <c r="C87" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42879</v>
+      </c>
+      <c r="C88" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42880</v>
+      </c>
+      <c r="C89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42880</v>
+      </c>
+      <c r="C90" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42881</v>
+      </c>
+      <c r="C91" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42886</v>
+      </c>
+      <c r="C92" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42886</v>
+      </c>
+      <c r="C93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42887</v>
+      </c>
+      <c r="C94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42887</v>
+      </c>
+      <c r="C95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42892</v>
+      </c>
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42892</v>
+      </c>
+      <c r="C97" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42892</v>
+      </c>
+      <c r="C98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42893</v>
+      </c>
+      <c r="C99" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42899</v>
+      </c>
+      <c r="C100" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42899</v>
+      </c>
+      <c r="C101" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A93">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A95">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="B102" s="1">
+        <v>42902</v>
+      </c>
+      <c r="C102" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181">
-        <v>180</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A182">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A184">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A187">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A188">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A190">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A199">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A200">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A201">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A202">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A203">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A204">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A205">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A206">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A207">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A208">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A209">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A210">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A211">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A212">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A213">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A214">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A215">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A216">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A217">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A219">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A220">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A221">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A222">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A223">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A224">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A225">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A226">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A227">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A228">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A229">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A230">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A231">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A232">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A233">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A234">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A235">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A236">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A237">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A238">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A239">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A240">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A241">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A242">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:C243">
+    <sortCondition ref="B2:B243"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
